--- a/Synthetic Data.xlsx
+++ b/Synthetic Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaod\Documents\GitHub\synthetic-goalkeeping-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B813C-60FF-4A5C-A628-C75DF90DD5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC9EC7-C0D8-4819-BBCE-DB6E9D725750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F525CFEA-FD6C-42D5-8121-36B5EA7DB628}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Neutro</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>isgoal</t>
   </si>
   <si>
     <t>appearance</t>
@@ -143,10 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,15 +632,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F834B986-7991-4981-AC5F-29AF8FB25D13}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -654,14 +653,11 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -671,14 +667,11 @@
       <c r="C2">
         <v>7</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -688,15 +681,12 @@
       <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -706,15 +696,11 @@
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -724,14 +710,11 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -741,14 +724,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -758,14 +738,11 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -775,14 +752,11 @@
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -792,14 +766,11 @@
       <c r="C9">
         <v>16</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -809,10 +780,7 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Synthetic Data.xlsx
+++ b/Synthetic Data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaod\Documents\GitHub\synthetic-goalkeeping-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC9EC7-C0D8-4819-BBCE-DB6E9D725750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF30A5F-12FA-441D-B890-A5ECDCFE413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F525CFEA-FD6C-42D5-8121-36B5EA7DB628}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28F62A72-389A-444F-9368-EAFD4377D2DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Matches" sheetId="1" r:id="rId1"/>
-    <sheet name="Shots" sheetId="2" r:id="rId2"/>
+    <sheet name="Players" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,82 +36,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Away</t>
-  </si>
-  <si>
-    <t>Jump</t>
-  </si>
-  <si>
-    <t>Standing</t>
-  </si>
-  <si>
-    <t>Dive</t>
-  </si>
-  <si>
-    <t>Wing</t>
-  </si>
-  <si>
-    <t>Lob</t>
-  </si>
-  <si>
-    <t>Spin</t>
-  </si>
-  <si>
-    <t>Hip</t>
-  </si>
-  <si>
-    <t>Underarm</t>
-  </si>
-  <si>
-    <t>Bounce</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>opponent</t>
-  </si>
-  <si>
-    <t>scored</t>
-  </si>
-  <si>
-    <t>conceded</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>appearance</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>base_torso_x</t>
+  </si>
+  <si>
+    <t>base_torso_y</t>
+  </si>
+  <si>
+    <t>upper_arm_length</t>
+  </si>
+  <si>
+    <t>forearm_length</t>
+  </si>
+  <si>
+    <t>thigh_length</t>
+  </si>
+  <si>
+    <t>shin_length</t>
+  </si>
+  <si>
+    <t>shoulder_horizontal_offset</t>
+  </si>
+  <si>
+    <t>shoulder_vertical_offset</t>
+  </si>
+  <si>
+    <t>hip_horizontal_offset</t>
+  </si>
+  <si>
+    <t>hip_vertical_offset</t>
+  </si>
+  <si>
+    <t>agility</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
+    <t>reflexes</t>
+  </si>
+  <si>
+    <t>Pedro Farelo</t>
+  </si>
+  <si>
+    <t>Vasco Palmeirim</t>
+  </si>
+  <si>
+    <t>José Saramago</t>
+  </si>
+  <si>
+    <t>Eça de Queirós</t>
+  </si>
+  <si>
+    <t>head_vertical_offset</t>
+  </si>
+  <si>
+    <t>flexibility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -140,9 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,312 +472,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C057BCC-59BA-46B3-9069-0EE9E266FE8F}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6633326-DBDD-4119-B432-0FA18141DB99}">
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F834B986-7991-4981-AC5F-29AF8FB25D13}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="4" max="5" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>3.5</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>4.5</v>
+      </c>
+      <c r="J2">
+        <v>2.5</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1.5</v>
+      </c>
+      <c r="M2">
+        <v>1.5</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>90</v>
+      </c>
+      <c r="P2">
+        <v>85</v>
+      </c>
+      <c r="Q2">
+        <v>85</v>
+      </c>
+      <c r="R2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>3.3</v>
+      </c>
+      <c r="G3">
+        <v>3.1</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>4.3</v>
+      </c>
+      <c r="J3">
+        <v>2.4</v>
+      </c>
+      <c r="K3">
+        <v>1.8</v>
+      </c>
+      <c r="L3">
+        <v>1.4</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
+        <v>2.9</v>
+      </c>
+      <c r="O3">
+        <v>80</v>
+      </c>
+      <c r="P3">
+        <v>90</v>
+      </c>
+      <c r="Q3">
+        <v>80</v>
+      </c>
+      <c r="R3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>3.6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>6.1</v>
+      </c>
+      <c r="I4">
+        <v>4.5</v>
+      </c>
+      <c r="J4">
+        <v>2.5</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1.7</v>
+      </c>
+      <c r="M4">
+        <v>1.5</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>70</v>
+      </c>
+      <c r="P4">
+        <v>90</v>
+      </c>
+      <c r="Q4">
+        <v>90</v>
+      </c>
+      <c r="R4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
       <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>3.5</v>
+      </c>
+      <c r="G5">
+        <v>2.9</v>
+      </c>
+      <c r="H5">
+        <v>6.2</v>
+      </c>
+      <c r="I5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J5">
+        <v>2.6</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
+      <c r="L5">
+        <v>1.5</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="N5">
+        <v>3.1</v>
+      </c>
+      <c r="O5">
+        <v>75</v>
+      </c>
+      <c r="P5">
+        <v>65</v>
+      </c>
+      <c r="Q5">
+        <v>70</v>
+      </c>
+      <c r="R5">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
